--- a/laya/csv/Drop.xlsx
+++ b/laya/csv/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\layabox\work\12Project_GeneralII\Trunk\Client\Shogun_laya2.0v\laya\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDFD467-862E-4925-B818-E1F160D1A917}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59355613-7DF6-4294-8133-B2D57CE5E00B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,11 +42,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> dropHeroLevel</t>
+    <t>unlockNeedId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>unlockNeedId</t>
+    <t>dropHeroLevel</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -495,10 +495,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
